--- a/4/Gistograms.xlsx
+++ b/4/Gistograms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6sem\IS\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B449DB0B-09E8-46F3-83AD-E51228094FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E43F053-D7B0-4BFE-8307-8D0C963D6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6AADBCF5-0A35-48CE-8612-173A902698A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t xml:space="preserve">  a: 203,</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t xml:space="preserve">  z: 284,</t>
+  </si>
+  <si>
+    <t>d: 22, i: 37, e: 64, s: 25, t: 31, a: 20, b: 10, c: 10, n: 38, l: 25, r: 24, h: 15, u: 20, p: 5, o: 12, v: 7, g: 7, f: 4, m: 12, w: 3, k: 4, z: 8, j: 3, x: 1</t>
   </si>
 </sst>
 </file>
@@ -295,8 +298,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1639,6 +1645,442 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Частота</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> символов</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> текста</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$64:$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>h</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>i</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>l</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>m</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>o</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>p</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>s</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>t</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>u</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>v</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>w</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$64:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51F4-4563-B07D-01664B417458}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="469779896"/>
+        <c:axId val="469778456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469779896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469778456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469778456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469779896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1759,6 +2201,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2766,6 +3248,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3373,6 +4358,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255319</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560119</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17119</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E08815-41EC-262A-E712-E671CDDCCAA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3678,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B419C393-DFD9-41E7-AE94-9DD2AF0E6201}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4428,6 +5449,203 @@
         <v>42</v>
       </c>
     </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
